--- a/medicine/Enfance/Éditions_Sarbacane/Éditions_Sarbacane.xlsx
+++ b/medicine/Enfance/Éditions_Sarbacane/Éditions_Sarbacane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Sarbacane</t>
+          <t>Éditions_Sarbacane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sarbacane est une maison d'édition française spécialisée dans la création d’albums illustrés pour la jeunesse, de BD jeunesse et adulte, et de romans tournés vers les adolescents et jeunes adultes. Fondée en 2003, elle est installée dans le 10e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ditions_Sarbacane</t>
+          <t>Éditions_Sarbacane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,33 +524,327 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarbacane est une maison d’édition créée en 2003 par Frédéric Lavabre[2].
-Albums jeunesse
-Emmanuelle Beulque, directrice de collection albums, ouvre dans un premier temps une collection d'ouvrages pour jeunes enfants. Cette collection a pour but d'être exigeante au regard de la langue, de ses rapports avec l'image ou du format de l'album[3],[4].
-Prix et distinctions
-Max Ducos reçoit le prix Landerneau, catégorie « Album Jeunesse 2022 » pour son album Le Passage secret.
-Exprim', le pari d'une littérature ado-adultes
-Sarbacane ouvre son catalogue aux romans en 2006, par la création d'Exprim', collection à destination des ados et des ados-adultes[5], dont le but assumé est de faire tomber les barrières entre la littérature destinée à la jeunesse et celle destinée aux adultes[6]. La catégorie intermédiaire ado-adultes, plus souvent nommée sous son appellation anglo-saxonne « Young Adult » ou « YA », est bien implantée aux États-Unis et en Angleterre avec des auteurs tels que John Green et des romans comme Junk de Melvin Burgess, mais le genre est alors peu représenté en France[7].
-Sarbacane prend le pari d'une littérature jeunesse davantage subversive, qui aborde des questions peu traitées habituellement comme la sexualité, la violence ou encore la résilience, tout en privilégiant une langue moins austère et des codes culturels plus urbains[8]. Le directeur de collection d'Exprim', Tibo Bérard, promeut dans ce cadre le choix de fictions au langage percutant, et qui ne sont pas « des documents déguisés » aux vertus pédagogiques ou d'avertissement aux enfants[9]. Malgré sa réputation de creuset de « littérature dangereuse[8] », la collection place des titres dans des sélections d'envergure nationale et recueille peu à peu un certain succès critique.
-Prix et distinctions
-La drôle de vie de Bibow Bradley, roman d'Axl Cendres publié dans la collection Exprim', remporte en 2014 le prix Pépite du Roman adolescent européen du SLPJ de Montreuil[10].
-Colorado Train en 2017, puis Fraternidad en 2019[11], deux romans de Thibault Vermot, décrochent une mention spéciale au prix Vendredi, « Goncourt » du livre jeunesse[12].
-Bande dessinée, un catalogue « indé »
-En 2007, un catalogue BD voit également le jour, proposant des albums pour enfants et pour adultes[13]. Sarbacane est reconnue pour son indépendance d'esprit et un esprit de recherche à l'œuvre dans les scénarios, le dessin[14],[15],[16] et le rapport format d'album/narration[17]. La maison d'édition voit ses auteurs régulièrement primés au sein des grands prix nationaux spécialisés en bande dessinée[18]. L'éditeur repart du festival d'Angoulême 2020 couronné par un prix BDGest'Arts, prix spécial du jury rarement décerné[19].
-Prix et distinctions
-En 2017, l'album Apache, dessiné et scénarisé par Alex W. Inker, remporte le Prix Polar SNCF 2017 dans le cadre du Festival d'Angoulême.
-En 2022, l'adaptation de 1984 par Xavier Coste remporte le Prix BD Fnac France Inter[20],[21].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarbacane est une maison d’édition créée en 2003 par Frédéric Lavabre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emmanuelle Beulque, directrice de collection albums, ouvre dans un premier temps une collection d'ouvrages pour jeunes enfants. Cette collection a pour but d'être exigeante au regard de la langue, de ses rapports avec l'image ou du format de l'album,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Ducos reçoit le prix Landerneau, catégorie « Album Jeunesse 2022 » pour son album Le Passage secret.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Exprim', le pari d'une littérature ado-adultes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarbacane ouvre son catalogue aux romans en 2006, par la création d'Exprim', collection à destination des ados et des ados-adultes, dont le but assumé est de faire tomber les barrières entre la littérature destinée à la jeunesse et celle destinée aux adultes. La catégorie intermédiaire ado-adultes, plus souvent nommée sous son appellation anglo-saxonne « Young Adult » ou « YA », est bien implantée aux États-Unis et en Angleterre avec des auteurs tels que John Green et des romans comme Junk de Melvin Burgess, mais le genre est alors peu représenté en France.
+Sarbacane prend le pari d'une littérature jeunesse davantage subversive, qui aborde des questions peu traitées habituellement comme la sexualité, la violence ou encore la résilience, tout en privilégiant une langue moins austère et des codes culturels plus urbains. Le directeur de collection d'Exprim', Tibo Bérard, promeut dans ce cadre le choix de fictions au langage percutant, et qui ne sont pas « des documents déguisés » aux vertus pédagogiques ou d'avertissement aux enfants. Malgré sa réputation de creuset de « littérature dangereuse », la collection place des titres dans des sélections d'envergure nationale et recueille peu à peu un certain succès critique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Exprim', le pari d'une littérature ado-adultes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La drôle de vie de Bibow Bradley, roman d'Axl Cendres publié dans la collection Exprim', remporte en 2014 le prix Pépite du Roman adolescent européen du SLPJ de Montreuil.
+Colorado Train en 2017, puis Fraternidad en 2019, deux romans de Thibault Vermot, décrochent une mention spéciale au prix Vendredi, « Goncourt » du livre jeunesse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Bande dessinée, un catalogue « indé »</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, un catalogue BD voit également le jour, proposant des albums pour enfants et pour adultes. Sarbacane est reconnue pour son indépendance d'esprit et un esprit de recherche à l'œuvre dans les scénarios, le dessin et le rapport format d'album/narration. La maison d'édition voit ses auteurs régulièrement primés au sein des grands prix nationaux spécialisés en bande dessinée. L'éditeur repart du festival d'Angoulême 2020 couronné par un prix BDGest'Arts, prix spécial du jury rarement décerné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Bande dessinée, un catalogue « indé »</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, l'album Apache, dessiné et scénarisé par Alex W. Inker, remporte le Prix Polar SNCF 2017 dans le cadre du Festival d'Angoulême.
+En 2022, l'adaptation de 1984 par Xavier Coste remporte le Prix BD Fnac France Inter,.
 En 2022 également, Alex W. Inker remporte le prix Coup de Cœur du festival Quai des Bulles à Saint-Malo pour son adaptation d'un roman paru d'abord dans la collection Exprim', Colorado Train.
-En 2023, Manon Debaye décroche le prix Philippe Druillet au Festival d'Angoulême, récompensant la jeune création[22], pour La Falaise[23].
-L'émergence d'une collection pour jeunes lecteurs
-La collection Pépix, à destination des 8 à 12 ans, est créée en 2014. Elle regroupe des histoire axées sur l'aventure et l'espièglerie de ses héros, et est animée par une volonté de trancher avec l'aspect « littérature à sujet » de la littérature jeunesse en France[24].
-Publiée dans cette collection, la série Le Journal de Gurty de Bertrand Santini obtient un grand succès de librairie[25].
-Changements structurels
-« Petite maison d'édition » occupant désormais dans le paysage éditorial « une place majeure[3] », proposant une centaine de nouveautés par an « régulièrement récompensées par des prix prestigieux[3] », les éditions Sarbacane sont rachetées en juillet 2020 par le groupe Madrigall[18]. Portée par une exigence de qualité reconnue dans le milieu éditorial[26], son catalogue compte alors plus de 750 titres, diffusés par Flammarion Diffusion et distribués par Union Distribution[2].
-Le directeur général des Éditions Sarbacane, Frédéric Lavabre explique cette vente, alors que la maison d'édition affiche une bonne santé financière, par le besoin d'externaliser les services de comptabilité et de négociation de droits étrangers, et de se recentrer sur les éléments purement éditoriaux et artistiques du métier d'éditeur[27]. Il évoque également l'aspect concurrentiel du milieu de l'édition, une production multipliée par quatre alors que le lectorat ne s'est pas expansé dans les mêmes proportions, et la nécessité de disposer d'une puissance de frappe en termes de marketing ou de publicité, qu'apporte le groupe Madrigall à Sarbacane[28]. En contrepartie, Antoine Gallimard note l'expertise des Éditions Sarbacane quant à l'illustration, et le renforcement dont pourrait bénéficier Madrigall à ce sujet en intégrant Sarbacane dans sa holding[28].
-En 2022, le pôle éditorial est réorganisé en interne et renforcé par un nouveau recrutement[29].
+En 2023, Manon Debaye décroche le prix Philippe Druillet au Festival d'Angoulême, récompensant la jeune création, pour La Falaise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L'émergence d'une collection pour jeunes lecteurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La collection Pépix, à destination des 8 à 12 ans, est créée en 2014. Elle regroupe des histoire axées sur l'aventure et l'espièglerie de ses héros, et est animée par une volonté de trancher avec l'aspect « littérature à sujet » de la littérature jeunesse en France.
+Publiée dans cette collection, la série Le Journal de Gurty de Bertrand Santini obtient un grand succès de librairie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Éditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89ditions_Sarbacane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Changements structurels</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Petite maison d'édition » occupant désormais dans le paysage éditorial « une place majeure », proposant une centaine de nouveautés par an « régulièrement récompensées par des prix prestigieux », les éditions Sarbacane sont rachetées en juillet 2020 par le groupe Madrigall. Portée par une exigence de qualité reconnue dans le milieu éditorial, son catalogue compte alors plus de 750 titres, diffusés par Flammarion Diffusion et distribués par Union Distribution.
+Le directeur général des Éditions Sarbacane, Frédéric Lavabre explique cette vente, alors que la maison d'édition affiche une bonne santé financière, par le besoin d'externaliser les services de comptabilité et de négociation de droits étrangers, et de se recentrer sur les éléments purement éditoriaux et artistiques du métier d'éditeur. Il évoque également l'aspect concurrentiel du milieu de l'édition, une production multipliée par quatre alors que le lectorat ne s'est pas expansé dans les mêmes proportions, et la nécessité de disposer d'une puissance de frappe en termes de marketing ou de publicité, qu'apporte le groupe Madrigall à Sarbacane. En contrepartie, Antoine Gallimard note l'expertise des Éditions Sarbacane quant à l'illustration, et le renforcement dont pourrait bénéficier Madrigall à ce sujet en intégrant Sarbacane dans sa holding.
+En 2022, le pôle éditorial est réorganisé en interne et renforcé par un nouveau recrutement.
 </t>
         </is>
       </c>
